--- a/contacts.xlsx
+++ b/contacts.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>number</t>
   </si>
@@ -19,16 +19,31 @@
     <t>name</t>
   </si>
   <si>
-    <t>hey!</t>
-  </si>
-  <si>
-    <t>hello!</t>
-  </si>
-  <si>
-    <t>ellow!</t>
-  </si>
-  <si>
-    <t>sir</t>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Faria</t>
+  </si>
+  <si>
+    <t>applied</t>
+  </si>
+  <si>
+    <t>Sir</t>
+  </si>
+  <si>
+    <t>Mehran Sir</t>
+  </si>
+  <si>
+    <t>92 3080337202</t>
+  </si>
+  <si>
+    <t>BVL</t>
+  </si>
+  <si>
+    <t>Zainab</t>
+  </si>
+  <si>
+    <t>Syeda</t>
   </si>
 </sst>
 </file>
@@ -301,37 +316,68 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>9.23007940657E11</v>
+        <v>3.081251133E9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>9.23077031256E11</v>
+        <v>3.427445007E9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>9.23317212185E11</v>
+        <v>3.0963367769E10</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2">
-        <v>9.23427445007E11</v>
+      <c r="A5" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2">
+        <v>5.4366387382E10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2">
+        <v>3.643746346E9</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
